--- a/Mifos Automation Excels/Client/4600-Holidayon15Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN.xlsx
+++ b/Mifos Automation Excels/Client/4600-Holidayon15Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>Loan Balance</t>
   </si>
   <si>
-    <t>4600-Holidays</t>
+    <t>4600-Holidays-1st</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
